--- a/medicine/Sexualité et sexologie/Sexologie_interculturelle/Sexologie_interculturelle.xlsx
+++ b/medicine/Sexualité et sexologie/Sexologie_interculturelle/Sexologie_interculturelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sexologie interculturelle est un champ de recherche de la sexologie qui étudie les relations entre la culture et la sexologie des êtres humains, et plus particulièrement les effets des dynamiques et des rencontres interculturelles sur la fonction érotique humaine, le couple et la famille[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sexologie interculturelle est un champ de recherche de la sexologie qui étudie les relations entre la culture et la sexologie des êtres humains, et plus particulièrement les effets des dynamiques et des rencontres interculturelles sur la fonction érotique humaine, le couple et la famille.
 La sexologie interculturelle est un domaine transdisciplinaire à la rencontre de la sexologie clinique et de l'anthropologie interculturelle.
 </t>
         </is>
